--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -1,187 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21135" windowHeight="6285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
-    <sheet name="voiceclone" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="voiceclone" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>参考音频</t>
+  </si>
+  <si>
+    <t>合成文本</t>
+  </si>
+  <si>
+    <t>数字人</t>
+  </si>
+  <si>
+    <t>输出音频</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>吴奶奶.MP3</t>
+  </si>
+  <si>
+    <t>欢迎使用智能语音系统</t>
+  </si>
+  <si>
+    <t>F:\workspace\python\batch_product\batch_video_product\inputs\video1.mp4</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-02\CC\吴奶奶_欢迎使用智能语音_172702.wav</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>董卿.MP3</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-02\CC\董卿_欢迎使用智能语音_172714.wav</t>
+  </si>
+  <si>
+    <t>今日天气晴，气温25摄氏度</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-02\CC\董卿_今日天气晴，气温_172726.wav</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-02\ZL\董卿_欢迎使用智能语音_172738.wav</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="22">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -373,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -494,170 +568,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -713,74 +778,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1040,155 +1042,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="64.375" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>负责人</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>参考音频</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>合成文本</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>输出路径</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>吴奶奶.MP3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>欢迎使用智能语音系统</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>G:\ai素材\数字人\2025-04-02\CC\吴奶奶_欢迎使用智能语音_172702.wav</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>董卿.MP3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>欢迎使用智能语音系统</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>G:\ai素材\数字人\2025-04-02\CC\董卿_欢迎使用智能语音_172714.wav</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>董卿.MP3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>今日天气晴，气温25摄氏度</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>G:\ai素材\数字人\2025-04-02\CC\董卿_今日天气晴，气温_172726.wav</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ZL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>董卿.MP3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>欢迎使用智能语音系统</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>G:\ai素材\数字人\2025-04-02\ZL\董卿_欢迎使用智能语音_172738.wav</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>负责人</t>
   </si>
@@ -47,40 +47,37 @@
     <t>日期</t>
   </si>
   <si>
+    <t>输出路径</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
-    <t>吴奶奶.MP3</t>
-  </si>
-  <si>
-    <t>欢迎使用智能语音系统</t>
-  </si>
-  <si>
-    <t>F:\workspace\python\batch_product\batch_video_product\inputs\video1.mp4</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-02\CC\吴奶奶_欢迎使用智能语音_172702.wav</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
+    <t>董卿.mp3</t>
+  </si>
+  <si>
+    <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+  </si>
+  <si>
+    <t>CC-董卿2.mp4</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-03\CC\audio.wav</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>董卿.MP3</t>
   </si>
   <si>
-    <t>G:\ai素材\数字人\2025-04-02\CC\董卿_欢迎使用智能语音_172714.wav</t>
-  </si>
-  <si>
-    <t>今日天气晴，气温25摄氏度</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-02\CC\董卿_今日天气晴，气温_172726.wav</t>
-  </si>
-  <si>
-    <t>ZL</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-02\ZL\董卿_欢迎使用智能语音_172738.wav</t>
+    <t>粉衣主持.mp4</t>
+  </si>
+  <si>
+    <t>红衣主持.mp4</t>
   </si>
 </sst>
 </file>
@@ -718,12 +715,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,22 +1047,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="64.375" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="53.875" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,85 +1081,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G4" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>负责人</t>
   </si>
@@ -47,9 +47,6 @@
     <t>日期</t>
   </si>
   <si>
-    <t>输出路径</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
@@ -68,16 +65,43 @@
     <t>2025-04-03</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>董卿.MP3</t>
-  </si>
-  <si>
     <t>粉衣主持.mp4</t>
   </si>
   <si>
     <t>红衣主持.mp4</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+  </si>
+  <si>
+    <t>ZL-董卿1.mp4</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-03\ZL\2.wav</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-03\ZL\2wav</t>
+  </si>
+  <si>
+    <t>小文声音.mp3</t>
+  </si>
+  <si>
+    <t>ZL-小文.mp4</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-03\ZL\3.wav</t>
+  </si>
+  <si>
+    <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-03\ZL\1.wav</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-03\ZL\4.wav</t>
   </si>
 </sst>
 </file>
@@ -715,18 +739,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,22 +1065,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="53.875" customWidth="1"/>
-    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="44.75" customWidth="1"/>
+    <col min="5" max="5" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,77 +1096,185 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -1075,6 +1075,7 @@
   <cols>
     <col min="3" max="3" width="44.75" customWidth="1"/>
     <col min="5" max="5" width="72.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -56,19 +56,19 @@
     <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
   </si>
   <si>
-    <t>CC-董卿2.mp4</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-03\CC\audio.wav</t>
+    <t>CC-dongqing2.mp4</t>
+  </si>
+  <si>
+    <t>G:\ai素材\数字人\2025-04-03\CC\1.mp3</t>
   </si>
   <si>
     <t>2025-04-03</t>
   </si>
   <si>
-    <t>粉衣主持.mp4</t>
-  </si>
-  <si>
-    <t>红衣主持.mp4</t>
+    <t>CC-fenyizhuchi.mp4</t>
+  </si>
+  <si>
+    <t>CC-hongyizhuchi.mp4</t>
   </si>
   <si>
     <t>ZL</t>
@@ -77,25 +77,25 @@
     <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
   </si>
   <si>
-    <t>ZL-董卿1.mp4</t>
+    <t>ZL-dongqing1.mp4</t>
   </si>
   <si>
     <t>G:\ai素材\数字人\2025-04-03\ZL\2.wav</t>
   </si>
   <si>
-    <t>G:\ai素材\数字人\2025-04-03\ZL\2wav</t>
-  </si>
-  <si>
     <t>小文声音.mp3</t>
   </si>
   <si>
-    <t>ZL-小文.mp4</t>
+    <t>ZL-xiaowen.mp4</t>
   </si>
   <si>
     <t>G:\ai素材\数字人\2025-04-03\ZL\3.wav</t>
   </si>
   <si>
     <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
+  </si>
+  <si>
+    <t>ZL-dongqing2.mp4</t>
   </si>
   <si>
     <t>G:\ai素材\数字人\2025-04-03\ZL\1.wav</t>
@@ -739,12 +739,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,12 +1071,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="44.75" customWidth="1"/>
+    <col min="3" max="3" width="62.625" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="72.625" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
   </cols>
@@ -1168,7 +1172,7 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -1188,11 +1192,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1203,16 +1207,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1226,10 +1230,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1246,10 +1250,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1263,13 +1267,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>

--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>负责人</t>
   </si>
@@ -59,49 +59,19 @@
     <t>CC-dongqing2.mp4</t>
   </si>
   <si>
-    <t>G:\ai素材\数字人\2025-04-03\CC\1.mp3</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+  </si>
+  <si>
+    <t>ZL-dongqing1.mp4</t>
   </si>
   <si>
     <t>CC-fenyizhuchi.mp4</t>
   </si>
   <si>
     <t>CC-hongyizhuchi.mp4</t>
-  </si>
-  <si>
-    <t>ZL</t>
-  </si>
-  <si>
-    <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
-  </si>
-  <si>
-    <t>ZL-dongqing1.mp4</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-03\ZL\2.wav</t>
-  </si>
-  <si>
-    <t>小文声音.mp3</t>
-  </si>
-  <si>
-    <t>ZL-xiaowen.mp4</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-03\ZL\3.wav</t>
-  </si>
-  <si>
-    <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
-  </si>
-  <si>
-    <t>ZL-dongqing2.mp4</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-03\ZL\1.wav</t>
-  </si>
-  <si>
-    <t>G:\ai素材\数字人\2025-04-03\ZL\4.wav</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1102,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1115,34 +1085,22 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1155,132 +1113,38 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="4:4">
+      <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
+    <row r="7" spans="4:4">
+      <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="4:4">
+      <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="4:4">
+      <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -1,252 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11655" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="voiceclone" sheetId="1" r:id="rId1"/>
+    <sheet name="voiceclone" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>参考音频</t>
-  </si>
-  <si>
-    <t>合成文本</t>
-  </si>
-  <si>
-    <t>数字人</t>
-  </si>
-  <si>
-    <t>输出音频</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>董卿.mp3</t>
-  </si>
-  <si>
-    <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
-  </si>
-  <si>
-    <t>CC-dongqing2.mp4</t>
-  </si>
-  <si>
-    <t>ZL</t>
-  </si>
-  <si>
-    <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
-  </si>
-  <si>
-    <t>ZL-dongqing1.mp4</t>
-  </si>
-  <si>
-    <t>CC-fenyizhuchi.mp4</t>
-  </si>
-  <si>
-    <t>CC-hongyizhuchi.mp4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="22">
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -438,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -559,165 +494,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -772,11 +716,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1036,118 +1043,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
-  <cols>
-    <col min="3" max="3" width="62.625" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="5" width="72.625" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>负责人</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>参考音频</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>合成文本</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>数字人</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>输出音频</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CC-dongqing2.mp4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_181423.wav</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ZL-dongqing1.mp4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-03\ZL\董卿_明天是属牛人的平_181455.wav</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CC-fenyizhuchi.mp4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_181510.wav</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="2"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CC-hongyizhuchi.mp4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_181531.wav</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -650,15 +650,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -1057,32 +1054,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>参考音频</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>合成文本</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>数字人</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>输出音频</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
@@ -1101,7 +1098,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+          <t>留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1111,7 +1108,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_181423.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_留下一句收到，接_182701.wav</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1133,7 +1130,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1143,7 +1140,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\ZL\董卿_明天是属牛人的平_181455.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-03\ZL\董卿_明天是属牛人的平_182717.wav</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1165,7 +1162,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1175,7 +1172,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_181510.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_182730.wav</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1197,7 +1194,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1207,7 +1204,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_181531.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_182743.wav</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">

--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -650,12 +650,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -1045,7 +1048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,32 +1057,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>参考音频</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>合成文本</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>数字人</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>输出音频</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
@@ -1098,29 +1101,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀</t>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CC-dongqing2.mp4</t>
+          <t>CC-dongqing1.mp4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_留下一句收到，接_182701.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120700.wav</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1130,22 +1133,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿</t>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ZL-dongqing1.mp4</t>
+          <t>CC-dongqing2.mp4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\ZL\董卿_明天是属牛人的平_182717.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120722.wav</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日</t>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1172,12 +1175,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_182730.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120745.wav</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1197,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日</t>
+          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1204,12 +1207,204 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-03\CC\董卿_属蛇的要笑了，4_182743.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120806.wav</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ZL-dongqing1.mp4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_明天是属牛人的平_120828.wav</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ZL-dongqing2.mp4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_明天是属牛人的平_120848.wav</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>小文声音.mp3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ZL-xiaowen.mp4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-04\ZL\小文声音_明天是属牛人的平_120908.wav</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ZL-dongqing1.mp4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_属牛的要笑了，4_120929.wav</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>董卿.mp3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ZL-dongqing2.mp4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_属牛的要笑了，4_120951.wav</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>小文声音.mp3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ZL-xiaowen.mp4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>F:\workspace\python\outputs\2025-04-04\ZL\小文声音_属牛的要笑了，4_121013.wav</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>

--- a/voiceclone.xlsx
+++ b/voiceclone.xlsx
@@ -1048,7 +1048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+          <t>今天是属蛇人的平安日，也是清明节，让我们为属蛇人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CC-dongqing1.mp4</t>
+          <t>CC-dongqing2.mp4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120700.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_今天是属蛇人的平_141930.wav</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1133,17 +1133,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+          <t>今天是属蛇人的平安日，也是清明节，让我们为属蛇人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CC-dongqing2.mp4</t>
+          <t>CC-fenyizhuchi.mp4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120722.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_今天是属蛇人的平_141954.wav</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+          <t>今天是属蛇人的平安日，也是清明节，让我们为属蛇人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CC-fenyizhuchi.mp4</t>
+          <t>CC-hongyizhuchi.mp4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120745.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_今天是属蛇人的平_142014.wav</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>属蛇的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属蛇的一定要接，错过要等百年。</t>
+          <t>属蛇的这个月注意了，有三个人正在找你，快点迎接他们，第一个，是人真心实意帮你逆风翻盘的人，第二个人，是诚心诚意帮助你东山再起的人，第三个人，是真心实意能够陪伴你一生一世的人，现在不接，错过要等百年</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CC-hongyizhuchi.mp4</t>
+          <t>CC-dongqing2.mp4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的要笑了，4_120806.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的这个月注意_142035.wav</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1219,7 +1219,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1229,17 +1229,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+          <t>属蛇的这个月注意了，有三个人正在找你，快点迎接他们，第一个，是人真心实意帮你逆风翻盘的人，第二个人，是诚心诚意帮助你东山再起的人，第三个人，是真心实意能够陪伴你一生一世的人，现在不接，错过要等百年</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ZL-dongqing1.mp4</t>
+          <t>CC-fenyizhuchi.mp4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_明天是属牛人的平_120828.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的这个月注意_142057.wav</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1251,7 +1251,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+          <t>属蛇的这个月注意了，有三个人正在找你，快点迎接他们，第一个，是人真心实意帮你逆风翻盘的人，第二个人，是诚心诚意帮助你东山再起的人，第三个人，是真心实意能够陪伴你一生一世的人，现在不接，错过要等百年</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ZL-dongqing2.mp4</t>
+          <t>CC-hongyizhuchi.mp4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_明天是属牛人的平_120848.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_属蛇的这个月注意_142120.wav</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1283,27 +1283,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>小文声音.mp3</t>
+          <t>董卿.mp3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>明天是属牛人的平安日，也是清明节，让我们为属牛人许愿，愿他们以后无灾无难，前程似锦，平安健康，富贵吉祥，顺风顺水，一生平安快乐</t>
+          <t>1965年的生肖蛇，如今已经60岁了，给自己点个赞吧，您大方心软，责任心极强，爱干净，又重感情，说话做事从不拐弯抹角，对名利不争不抢，只想过自己喜欢的生活，喜欢安稳坚强的属蛇人，从来不指望别人的心疼，因为他的背后早已经空无一人，那些难熬的日子，都是他自己扛过来的，他生活的背后，全是你熬不起的苦，</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZL-xiaowen.mp4</t>
+          <t>CC-dongqing2.mp4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\ZL\小文声音_明天是属牛人的平_120908.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_1965年的生肖_142143.wav</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1325,17 +1325,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
+          <t>1965年的生肖蛇，如今已经60岁了，给自己点个赞吧，您大方心软，责任心极强，爱干净，又重感情，说话做事从不拐弯抹角，对名利不争不抢，只想过自己喜欢的生活，喜欢安稳坚强的属蛇人，从来不指望别人的心疼，因为他的背后早已经空无一人，那些难熬的日子，都是他自己扛过来的，他生活的背后，全是你熬不起的苦，</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZL-dongqing1.mp4</t>
+          <t>CC-fenyizhuchi.mp4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_属牛的要笑了，4_120929.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_1965年的生肖_142155.wav</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1347,7 +1347,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1357,52 +1357,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
+          <t>1965年的生肖蛇，如今已经60岁了，给自己点个赞吧，您大方心软，责任心极强，爱干净，又重感情，说话做事从不拐弯抹角，对名利不争不抢，只想过自己喜欢的生活，喜欢安稳坚强的属蛇人，从来不指望别人的心疼，因为他的背后早已经空无一人，那些难熬的日子，都是他自己扛过来的，他生活的背后，全是你熬不起的苦，</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZL-dongqing2.mp4</t>
+          <t>CC-hongyizhuchi.mp4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F:\workspace\python\outputs\2025-04-04\ZL\董卿_属牛的要笑了，4_120951.wav</t>
+          <t>F:\workspace\python\outputs\2025-04-04\CC\董卿_1965年的生肖_142205.wav</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-04-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ZL</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>小文声音.mp3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>属牛的要笑了，4月4日清明节，也就是明天，是你的开财日，留下一句收到，接下来的日子，黄金满屋福禄宽，日进斗金乐开怀，生意兴隆通四海，金玉满堂财气盛，财源滚滚似春潮，富贵花开满庭放，家中有属马的一定要接，错过要等百年。</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ZL-xiaowen.mp4</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>F:\workspace\python\outputs\2025-04-04\ZL\小文声音_属牛的要笑了，4_121013.wav</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>2025-04-04</t>
         </is>
